--- a/21307@surfman.com_purchased_results.xlsx
+++ b/21307@surfman.com_purchased_results.xlsx
@@ -439,7 +439,7 @@
         <v>5080</v>
       </c>
       <c r="E2" t="str">
-        <v>1,500,000</v>
+        <v>13,500,000</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
